--- a/WTP_BDM/data/WTP_BDM_allsubs.xlsx
+++ b/WTP_BDM/data/WTP_BDM_allsubs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5289" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="16">
   <si>
     <t>Subject</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1761"/>
+  <dimension ref="A1:J1871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1729" workbookViewId="0">
-      <selection activeCell="E1762" sqref="E1762"/>
+    <sheetView tabSelected="1" topLeftCell="A1758" workbookViewId="0">
+      <selection activeCell="K1777" sqref="K1777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46218,6 +46218,2866 @@
         <v>1.724</v>
       </c>
     </row>
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1762">
+        <v>17</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1762">
+        <v>18</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1762">
+        <v>1</v>
+      </c>
+      <c r="G1762" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1762">
+        <v>23.588999999999999</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1763">
+        <v>17</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1763">
+        <v>18</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1763">
+        <v>1</v>
+      </c>
+      <c r="G1763" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1763">
+        <v>6.9930000000000003</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1764">
+        <v>17</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1764">
+        <v>18</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1764">
+        <v>0</v>
+      </c>
+      <c r="G1764" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1764">
+        <v>4.5570000000000004</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1765">
+        <v>17</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1765">
+        <v>18</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1765">
+        <v>1</v>
+      </c>
+      <c r="G1765" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1765">
+        <v>3.5569999999999999</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1766">
+        <v>17</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1766">
+        <v>18</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1766">
+        <v>2</v>
+      </c>
+      <c r="G1766" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1766">
+        <v>5.1859999999999999</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1767">
+        <v>17</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1767">
+        <v>18</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1767">
+        <v>0</v>
+      </c>
+      <c r="G1767" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1767">
+        <v>4.7969999999999997</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1768">
+        <v>17</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1768">
+        <v>18</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1768">
+        <v>2</v>
+      </c>
+      <c r="G1768" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1768">
+        <v>3.2959999999999998</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1769">
+        <v>17</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1769">
+        <v>18</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1769">
+        <v>1</v>
+      </c>
+      <c r="G1769" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1769">
+        <v>5.3179999999999996</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1770">
+        <v>17</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1770">
+        <v>18</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1770">
+        <v>0</v>
+      </c>
+      <c r="G1770" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1770">
+        <v>3.383</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1771">
+        <v>17</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1771">
+        <v>18</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1771">
+        <v>2</v>
+      </c>
+      <c r="G1771" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1771">
+        <v>4.8579999999999997</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1772">
+        <v>17</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1772">
+        <v>18</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1772">
+        <v>2</v>
+      </c>
+      <c r="G1772" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1772">
+        <v>4.351</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1773">
+        <v>17</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1773">
+        <v>18</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1773">
+        <v>2</v>
+      </c>
+      <c r="G1773" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1773">
+        <v>7.0979999999999999</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1774">
+        <v>17</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1774">
+        <v>18</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1774">
+        <v>0</v>
+      </c>
+      <c r="G1774" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1774">
+        <v>5.5590000000000002</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1775">
+        <v>17</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1775">
+        <v>18</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1775">
+        <v>1</v>
+      </c>
+      <c r="G1775" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1775">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1776">
+        <v>17</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1776">
+        <v>18</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1776">
+        <v>0</v>
+      </c>
+      <c r="G1776" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1776">
+        <v>3.8759999999999999</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1777">
+        <v>17</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1777">
+        <v>18</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1777">
+        <v>0</v>
+      </c>
+      <c r="G1777" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1777">
+        <v>3.5259999999999998</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1778">
+        <v>17</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1778">
+        <v>18</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1778">
+        <v>1</v>
+      </c>
+      <c r="G1778" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1778">
+        <v>4.0209999999999999</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1779">
+        <v>17</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1779">
+        <v>18</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1779">
+        <v>1</v>
+      </c>
+      <c r="G1779" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1779">
+        <v>3.9260000000000002</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1780">
+        <v>17</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1780">
+        <v>18</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1780">
+        <v>1</v>
+      </c>
+      <c r="G1780" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1780">
+        <v>3.7549999999999999</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1781">
+        <v>17</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1781">
+        <v>18</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1781">
+        <v>1</v>
+      </c>
+      <c r="G1781" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1781">
+        <v>4.1360000000000001</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1782">
+        <v>17</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1782">
+        <v>18</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1782">
+        <v>0</v>
+      </c>
+      <c r="G1782" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1782">
+        <v>2.149</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1783">
+        <v>17</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1783">
+        <v>18</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1783">
+        <v>0</v>
+      </c>
+      <c r="G1783" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1783">
+        <v>2.1920000000000002</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1784">
+        <v>17</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1784">
+        <v>18</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1784">
+        <v>0</v>
+      </c>
+      <c r="G1784" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1784">
+        <v>3.2309999999999999</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1785">
+        <v>17</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1785">
+        <v>18</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1785">
+        <v>2</v>
+      </c>
+      <c r="G1785" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1785">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1786">
+        <v>17</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1786">
+        <v>18</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1786">
+        <v>2</v>
+      </c>
+      <c r="G1786" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1786">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1787">
+        <v>17</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1787">
+        <v>18</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1787">
+        <v>2</v>
+      </c>
+      <c r="G1787" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1787">
+        <v>3.399</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1788">
+        <v>17</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1788">
+        <v>18</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1788">
+        <v>0</v>
+      </c>
+      <c r="G1788" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1788">
+        <v>4.0960000000000001</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1789">
+        <v>17</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1789">
+        <v>18</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1789">
+        <v>0</v>
+      </c>
+      <c r="G1789" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1789">
+        <v>2.9910000000000001</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1790">
+        <v>17</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1790">
+        <v>18</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1790">
+        <v>0</v>
+      </c>
+      <c r="G1790" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1790">
+        <v>2.1230000000000002</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1791">
+        <v>17</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1791">
+        <v>18</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1791">
+        <v>0</v>
+      </c>
+      <c r="G1791" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1791">
+        <v>3.839</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1792">
+        <v>17</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1792">
+        <v>18</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1792">
+        <v>0</v>
+      </c>
+      <c r="G1792" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1792">
+        <v>2.7269999999999999</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1793">
+        <v>17</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1793">
+        <v>18</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1793">
+        <v>0</v>
+      </c>
+      <c r="G1793" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1793">
+        <v>3.0910000000000002</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1794">
+        <v>17</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1794">
+        <v>18</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1794">
+        <v>2</v>
+      </c>
+      <c r="G1794" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1794">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1795">
+        <v>17</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1795">
+        <v>18</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1795">
+        <v>0</v>
+      </c>
+      <c r="G1795" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1795">
+        <v>3.5339999999999998</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1796">
+        <v>17</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1796">
+        <v>18</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1796">
+        <v>2</v>
+      </c>
+      <c r="G1796" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1796">
+        <v>3.6030000000000002</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1797">
+        <v>17</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1797">
+        <v>18</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1797">
+        <v>0</v>
+      </c>
+      <c r="G1797" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1797">
+        <v>1.8859999999999999</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1798">
+        <v>17</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1798">
+        <v>18</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1798">
+        <v>2</v>
+      </c>
+      <c r="G1798" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1798">
+        <v>2.6120000000000001</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1799">
+        <v>17</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1799">
+        <v>18</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1799">
+        <v>2</v>
+      </c>
+      <c r="G1799" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1799">
+        <v>2.9449999999999998</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1800">
+        <v>17</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1800">
+        <v>18</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1800">
+        <v>2</v>
+      </c>
+      <c r="G1800" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1800">
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1801">
+        <v>17</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1801">
+        <v>18</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1801">
+        <v>0</v>
+      </c>
+      <c r="G1801" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1801">
+        <v>2.5590000000000002</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1802">
+        <v>17</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1802">
+        <v>18</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1802">
+        <v>0</v>
+      </c>
+      <c r="G1802" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H1802">
+        <v>3.746</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1803">
+        <v>17</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1803">
+        <v>18</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1803">
+        <v>0</v>
+      </c>
+      <c r="G1803" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1803">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1804">
+        <v>17</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1804">
+        <v>18</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1804">
+        <v>2</v>
+      </c>
+      <c r="G1804" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1804">
+        <v>7.3979999999999997</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1805">
+        <v>17</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1805">
+        <v>18</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1805">
+        <v>2</v>
+      </c>
+      <c r="G1805" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1805">
+        <v>3.7069999999999999</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1806">
+        <v>17</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1806">
+        <v>18</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1806">
+        <v>1</v>
+      </c>
+      <c r="G1806" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1806">
+        <v>2.8740000000000001</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1807">
+        <v>17</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1807">
+        <v>18</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1807">
+        <v>0</v>
+      </c>
+      <c r="G1807" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1807">
+        <v>2.9940000000000002</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1808">
+        <v>17</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1808">
+        <v>18</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1808">
+        <v>0</v>
+      </c>
+      <c r="G1808" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1808">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1809">
+        <v>17</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1809">
+        <v>18</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1809">
+        <v>0</v>
+      </c>
+      <c r="G1809" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1809">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1810">
+        <v>17</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1810">
+        <v>18</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1810">
+        <v>0</v>
+      </c>
+      <c r="G1810" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1810">
+        <v>2.7589999999999999</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1811">
+        <v>17</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1811">
+        <v>18</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1811">
+        <v>1</v>
+      </c>
+      <c r="G1811" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1811">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1812">
+        <v>17</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1812">
+        <v>18</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1812">
+        <v>1</v>
+      </c>
+      <c r="G1812" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1812">
+        <v>3.2919999999999998</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1813">
+        <v>17</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1813">
+        <v>18</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1813">
+        <v>0</v>
+      </c>
+      <c r="G1813" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1813">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1814">
+        <v>17</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1814">
+        <v>18</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1814">
+        <v>2</v>
+      </c>
+      <c r="G1814" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1814">
+        <v>3.0209999999999999</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1815">
+        <v>17</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1815">
+        <v>18</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1815">
+        <v>0</v>
+      </c>
+      <c r="G1815" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1815">
+        <v>2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1816">
+        <v>17</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1816">
+        <v>18</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1816">
+        <v>0</v>
+      </c>
+      <c r="G1816" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H1816">
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1817">
+        <v>17</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1817">
+        <v>18</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1817">
+        <v>0</v>
+      </c>
+      <c r="G1817" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1817">
+        <v>3.8109999999999999</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1818">
+        <v>17</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1818">
+        <v>18</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1818">
+        <v>1</v>
+      </c>
+      <c r="G1818" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1818">
+        <v>2.4089999999999998</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1819">
+        <v>17</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1819">
+        <v>18</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1819">
+        <v>0</v>
+      </c>
+      <c r="G1819" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1819">
+        <v>2.4660000000000002</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1820">
+        <v>17</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1820">
+        <v>18</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1820">
+        <v>1</v>
+      </c>
+      <c r="G1820" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1820">
+        <v>3.3719999999999999</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1821">
+        <v>17</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1821">
+        <v>18</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1821">
+        <v>0</v>
+      </c>
+      <c r="G1821" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H1821">
+        <v>4.7670000000000003</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1822">
+        <v>17</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1822">
+        <v>18</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1822">
+        <v>1</v>
+      </c>
+      <c r="G1822" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1822">
+        <v>2.093</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1823">
+        <v>17</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1823">
+        <v>18</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1823">
+        <v>2</v>
+      </c>
+      <c r="G1823" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1823">
+        <v>3.113</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1824">
+        <v>17</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1824">
+        <v>18</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1824">
+        <v>2</v>
+      </c>
+      <c r="G1824" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1824">
+        <v>2.9990000000000001</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1825">
+        <v>17</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1825">
+        <v>18</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1825">
+        <v>2</v>
+      </c>
+      <c r="G1825" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1825">
+        <v>2.335</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1826">
+        <v>17</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1826">
+        <v>18</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1826">
+        <v>1</v>
+      </c>
+      <c r="G1826" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1826">
+        <v>3.1880000000000002</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1827">
+        <v>17</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1827">
+        <v>18</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1827">
+        <v>0</v>
+      </c>
+      <c r="G1827" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1827">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1828">
+        <v>17</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1828">
+        <v>18</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1828">
+        <v>1</v>
+      </c>
+      <c r="G1828" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1828">
+        <v>3.6309999999999998</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1829">
+        <v>17</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1829">
+        <v>18</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1829">
+        <v>1</v>
+      </c>
+      <c r="G1829" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1829">
+        <v>2.645</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1830">
+        <v>17</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1830">
+        <v>18</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1830">
+        <v>0</v>
+      </c>
+      <c r="G1830" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1830">
+        <v>2.734</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1831">
+        <v>17</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1831">
+        <v>18</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1831">
+        <v>2</v>
+      </c>
+      <c r="G1831" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H1831">
+        <v>2.9039999999999999</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1832">
+        <v>17</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1832">
+        <v>18</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1832">
+        <v>0</v>
+      </c>
+      <c r="G1832" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1832">
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1833">
+        <v>17</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1833">
+        <v>18</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1833">
+        <v>2</v>
+      </c>
+      <c r="G1833" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1833">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1834">
+        <v>17</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1834">
+        <v>18</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1834">
+        <v>0</v>
+      </c>
+      <c r="G1834" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1834">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1835">
+        <v>17</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1835">
+        <v>18</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1835">
+        <v>1</v>
+      </c>
+      <c r="G1835" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1835">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1836">
+        <v>17</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1836">
+        <v>18</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1836">
+        <v>0</v>
+      </c>
+      <c r="G1836" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1836">
+        <v>2.9580000000000002</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1837">
+        <v>17</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1837">
+        <v>18</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1837">
+        <v>0</v>
+      </c>
+      <c r="G1837" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1837">
+        <v>1.5920000000000001</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1838">
+        <v>17</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1838">
+        <v>18</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1838">
+        <v>0</v>
+      </c>
+      <c r="G1838" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1838">
+        <v>3.1440000000000001</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1839">
+        <v>17</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1839">
+        <v>18</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1839">
+        <v>0</v>
+      </c>
+      <c r="G1839" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1839">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1840">
+        <v>17</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1840">
+        <v>18</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1840">
+        <v>0</v>
+      </c>
+      <c r="G1840" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1840">
+        <v>2.4780000000000002</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1841">
+        <v>17</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1841">
+        <v>18</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1841">
+        <v>1</v>
+      </c>
+      <c r="G1841" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H1841">
+        <v>4.718</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1842">
+        <v>17</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1842">
+        <v>18</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1842">
+        <v>1</v>
+      </c>
+      <c r="G1842" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1842">
+        <v>2.028</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1843">
+        <v>17</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1843">
+        <v>18</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1843">
+        <v>0</v>
+      </c>
+      <c r="G1843" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1843">
+        <v>5.1040000000000001</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1844">
+        <v>17</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1844">
+        <v>18</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1844">
+        <v>1</v>
+      </c>
+      <c r="G1844" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1844">
+        <v>3.7519999999999998</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1845">
+        <v>17</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1845">
+        <v>18</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1845">
+        <v>2</v>
+      </c>
+      <c r="G1845" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1845">
+        <v>3.7549999999999999</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1846">
+        <v>17</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1846">
+        <v>18</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1846">
+        <v>1</v>
+      </c>
+      <c r="G1846" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H1846">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1847">
+        <v>17</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1847">
+        <v>18</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1847">
+        <v>0</v>
+      </c>
+      <c r="G1847" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1847">
+        <v>2.8940000000000001</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1848">
+        <v>17</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1848">
+        <v>18</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1848">
+        <v>0</v>
+      </c>
+      <c r="G1848" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1848">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1849">
+        <v>17</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1849">
+        <v>18</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1849">
+        <v>1</v>
+      </c>
+      <c r="G1849" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1849">
+        <v>3.569</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1850">
+        <v>17</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1850">
+        <v>18</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1850">
+        <v>0</v>
+      </c>
+      <c r="G1850" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1850">
+        <v>2.2360000000000002</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1851">
+        <v>17</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1851">
+        <v>18</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1851">
+        <v>0</v>
+      </c>
+      <c r="G1851" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1851">
+        <v>2.7759999999999998</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1852">
+        <v>17</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1852">
+        <v>18</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1852">
+        <v>1</v>
+      </c>
+      <c r="G1852" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1852">
+        <v>2.3410000000000002</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1853">
+        <v>17</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1853">
+        <v>18</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1853">
+        <v>0</v>
+      </c>
+      <c r="G1853" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1853">
+        <v>3.4260000000000002</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1854">
+        <v>17</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1854">
+        <v>18</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1854">
+        <v>2</v>
+      </c>
+      <c r="G1854" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1854">
+        <v>4.5650000000000004</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1855">
+        <v>17</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1855">
+        <v>18</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1855">
+        <v>2</v>
+      </c>
+      <c r="G1855" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1855">
+        <v>1.8919999999999999</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1856">
+        <v>17</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1856">
+        <v>18</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1856">
+        <v>1</v>
+      </c>
+      <c r="G1856" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1856">
+        <v>3.3730000000000002</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1857">
+        <v>17</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1857">
+        <v>18</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1857">
+        <v>2</v>
+      </c>
+      <c r="G1857" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H1857">
+        <v>2.6880000000000002</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1858">
+        <v>17</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1858">
+        <v>18</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1858">
+        <v>0</v>
+      </c>
+      <c r="G1858" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1858">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1859">
+        <v>17</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1859">
+        <v>18</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1859">
+        <v>0</v>
+      </c>
+      <c r="G1859" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1859">
+        <v>2.7970000000000002</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1860">
+        <v>17</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1860">
+        <v>18</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1860">
+        <v>0</v>
+      </c>
+      <c r="G1860" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1860">
+        <v>1.8240000000000001</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1861">
+        <v>17</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1861">
+        <v>18</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1861">
+        <v>1</v>
+      </c>
+      <c r="G1861" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H1861">
+        <v>2.1219999999999999</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1862">
+        <v>17</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1862">
+        <v>18</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1862">
+        <v>1</v>
+      </c>
+      <c r="G1862" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1862">
+        <v>2.4060000000000001</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1863">
+        <v>17</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1863">
+        <v>18</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1863">
+        <v>0</v>
+      </c>
+      <c r="G1863" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1863">
+        <v>2.2730000000000001</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1864">
+        <v>17</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1864">
+        <v>18</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1864">
+        <v>2</v>
+      </c>
+      <c r="G1864" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1864">
+        <v>2.7250000000000001</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1865">
+        <v>17</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1865">
+        <v>18</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1865">
+        <v>1</v>
+      </c>
+      <c r="G1865" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1865">
+        <v>2.8109999999999999</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1866">
+        <v>17</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1866">
+        <v>18</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1866">
+        <v>1</v>
+      </c>
+      <c r="G1866" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1866">
+        <v>3.1850000000000001</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1867">
+        <v>17</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1867">
+        <v>18</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1867">
+        <v>1</v>
+      </c>
+      <c r="G1867" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1867">
+        <v>2.859</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1868">
+        <v>17</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1868">
+        <v>18</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1868">
+        <v>0</v>
+      </c>
+      <c r="G1868" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1868">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1869">
+        <v>17</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1869">
+        <v>18</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1869">
+        <v>1</v>
+      </c>
+      <c r="G1869" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H1869">
+        <v>2.0579999999999998</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1870">
+        <v>17</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1870">
+        <v>18</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1870">
+        <v>0</v>
+      </c>
+      <c r="G1870" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H1870">
+        <v>2.1230000000000002</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1871">
+        <v>17</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1871">
+        <v>18</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1871">
+        <v>2</v>
+      </c>
+      <c r="G1871" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1871">
+        <v>2.7090000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
